--- a/techniqo/data_new_ticker/VESUVIUS.xlsx
+++ b/techniqo/data_new_ticker/VESUVIUS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1361"/>
+  <dimension ref="A1:G1363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48021,6 +48021,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>981</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>994</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>965.1</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>970.25</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>2965</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>980</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>994.75</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>953</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>970.75</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>2461</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/VESUVIUS.xlsx
+++ b/techniqo/data_new_ticker/VESUVIUS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1363"/>
+  <dimension ref="A1:G1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48071,6 +48071,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>975</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>975</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>951</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>958.65</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>1965</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>951.7</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>980</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>951.65</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>972.35</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>2794</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
